--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/Desktop/4a metadata sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70C7EEC2-CDB0-AD47-A759-E45D4299A923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39991C4-A210-204B-B562-C952D781C17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12860" yWindow="4300" windowWidth="20720" windowHeight="14920" xr2:uid="{5EC711FD-29FB-E046-A8C8-B789A9DE105B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="53">
   <si>
     <t>rnaDate</t>
   </si>
@@ -81,13 +81,121 @@
   </si>
   <si>
     <t>random</t>
+  </si>
+  <si>
+    <t>4a 1</t>
+  </si>
+  <si>
+    <t>4a 2</t>
+  </si>
+  <si>
+    <t>4a 3</t>
+  </si>
+  <si>
+    <t>4a 4</t>
+  </si>
+  <si>
+    <t>4a 5</t>
+  </si>
+  <si>
+    <t>4a 6</t>
+  </si>
+  <si>
+    <t>4a 7</t>
+  </si>
+  <si>
+    <t>4a 8</t>
+  </si>
+  <si>
+    <t>4a 9</t>
+  </si>
+  <si>
+    <t>4a 10</t>
+  </si>
+  <si>
+    <t>4a 11</t>
+  </si>
+  <si>
+    <t>4a 12</t>
+  </si>
+  <si>
+    <t>4a 13</t>
+  </si>
+  <si>
+    <t>4a 14</t>
+  </si>
+  <si>
+    <t>4a 15</t>
+  </si>
+  <si>
+    <t>4a 16</t>
+  </si>
+  <si>
+    <t>4a 17</t>
+  </si>
+  <si>
+    <t>4a 18</t>
+  </si>
+  <si>
+    <t>4a 19</t>
+  </si>
+  <si>
+    <t>4a 20</t>
+  </si>
+  <si>
+    <t>4a 21</t>
+  </si>
+  <si>
+    <t>4a 22</t>
+  </si>
+  <si>
+    <t>4a 23</t>
+  </si>
+  <si>
+    <t>4a 24</t>
+  </si>
+  <si>
+    <t>4a 25</t>
+  </si>
+  <si>
+    <t>4a 26</t>
+  </si>
+  <si>
+    <t>JR1 1</t>
+  </si>
+  <si>
+    <t>JR1 2</t>
+  </si>
+  <si>
+    <t>JR1 3</t>
+  </si>
+  <si>
+    <t>JR1 4</t>
+  </si>
+  <si>
+    <t>JR1 5</t>
+  </si>
+  <si>
+    <t>JR1 6</t>
+  </si>
+  <si>
+    <t>JR1 7</t>
+  </si>
+  <si>
+    <t>JR1 8</t>
+  </si>
+  <si>
+    <t>JR1 9</t>
+  </si>
+  <si>
+    <t>JR1 10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -104,6 +212,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -127,10 +241,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B358D8B-1875-5D4D-9AC7-F17D5670928A}">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,8 +625,8 @@
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -556,8 +673,8 @@
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="C3" t="s">
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -588,8 +705,8 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
-        <v>3</v>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -620,8 +737,8 @@
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
-        <v>4</v>
+      <c r="C5" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -652,8 +769,8 @@
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>5</v>
+      <c r="C6" t="s">
+        <v>21</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
@@ -684,8 +801,8 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>6</v>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
@@ -716,8 +833,8 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
-        <v>7</v>
+      <c r="C8" t="s">
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -748,8 +865,8 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>8</v>
+      <c r="C9" t="s">
+        <v>24</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -780,8 +897,8 @@
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>9</v>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>12</v>
@@ -812,8 +929,8 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
-        <v>10</v>
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>12</v>
@@ -844,8 +961,8 @@
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <v>11</v>
+      <c r="C12" t="s">
+        <v>27</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -876,8 +993,8 @@
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
-        <v>12</v>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -908,8 +1025,8 @@
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
-        <v>13</v>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>12</v>
@@ -940,8 +1057,8 @@
       <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C15">
-        <v>14</v>
+      <c r="C15" t="s">
+        <v>30</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>12</v>
@@ -972,8 +1089,8 @@
       <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C16">
-        <v>15</v>
+      <c r="C16" t="s">
+        <v>31</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -1004,8 +1121,8 @@
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C17">
-        <v>16</v>
+      <c r="C17" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -1036,8 +1153,8 @@
       <c r="B18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
-        <v>17</v>
+      <c r="C18" t="s">
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>12</v>
@@ -1068,8 +1185,8 @@
       <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C19">
-        <v>18</v>
+      <c r="C19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>12</v>
@@ -1100,8 +1217,8 @@
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
-        <v>19</v>
+      <c r="C20" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>12</v>
@@ -1132,8 +1249,8 @@
       <c r="B21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C21">
-        <v>20</v>
+      <c r="C21" t="s">
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>12</v>
@@ -1164,8 +1281,8 @@
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22">
-        <v>21</v>
+      <c r="C22" t="s">
+        <v>37</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>12</v>
@@ -1196,8 +1313,8 @@
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C23">
-        <v>22</v>
+      <c r="C23" t="s">
+        <v>38</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>12</v>
@@ -1228,8 +1345,8 @@
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
-        <v>23</v>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -1260,8 +1377,8 @@
       <c r="B25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>24</v>
+      <c r="C25" t="s">
+        <v>40</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
@@ -1292,8 +1409,8 @@
       <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C26">
-        <v>25</v>
+      <c r="C26" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>12</v>
@@ -1324,8 +1441,8 @@
       <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C27">
-        <v>26</v>
+      <c r="C27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>12</v>
@@ -1356,8 +1473,8 @@
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28">
-        <v>27</v>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -1388,8 +1505,8 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29">
-        <v>28</v>
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
@@ -1420,8 +1537,8 @@
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30">
-        <v>29</v>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -1452,8 +1569,8 @@
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
-        <v>30</v>
+      <c r="C31" t="s">
+        <v>46</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -1484,8 +1601,8 @@
       <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C32">
-        <v>31</v>
+      <c r="C32" t="s">
+        <v>47</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -1516,8 +1633,8 @@
       <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
-        <v>32</v>
+      <c r="C33" t="s">
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
@@ -1548,8 +1665,8 @@
       <c r="B34" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
-        <v>33</v>
+      <c r="C34" t="s">
+        <v>49</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -1580,8 +1697,8 @@
       <c r="B35" t="s">
         <v>11</v>
       </c>
-      <c r="C35">
-        <v>34</v>
+      <c r="C35" t="s">
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
@@ -1612,8 +1729,8 @@
       <c r="B36" t="s">
         <v>11</v>
       </c>
-      <c r="C36">
-        <v>35</v>
+      <c r="C36" t="s">
+        <v>51</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
@@ -1644,8 +1761,8 @@
       <c r="B37" t="s">
         <v>11</v>
       </c>
-      <c r="C37">
-        <v>36</v>
+      <c r="C37" t="s">
+        <v>52</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>

--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">NEBNextPoly(A)E7490</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -225,16 +225,16 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -280,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -293,12 +293,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -320,8 +324,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2:E37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -399,7 +403,7 @@
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -447,7 +451,7 @@
       <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -479,7 +483,7 @@
       <c r="G4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -511,7 +515,7 @@
       <c r="G5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -543,7 +547,7 @@
       <c r="G6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -575,7 +579,7 @@
       <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -607,7 +611,7 @@
       <c r="G8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -639,7 +643,7 @@
       <c r="G9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -671,7 +675,7 @@
       <c r="G10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -703,7 +707,7 @@
       <c r="G11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -735,7 +739,7 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -767,7 +771,7 @@
       <c r="G13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -799,7 +803,7 @@
       <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -831,7 +835,7 @@
       <c r="G15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -863,7 +867,7 @@
       <c r="G16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -895,7 +899,7 @@
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -927,7 +931,7 @@
       <c r="G18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -959,7 +963,7 @@
       <c r="G19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -991,7 +995,7 @@
       <c r="G20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -1023,7 +1027,7 @@
       <c r="G21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -1055,7 +1059,7 @@
       <c r="G22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -1087,7 +1091,7 @@
       <c r="G23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -1119,7 +1123,7 @@
       <c r="G24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -1151,7 +1155,7 @@
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -1183,7 +1187,7 @@
       <c r="G26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -1215,7 +1219,7 @@
       <c r="G27" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -1247,7 +1251,7 @@
       <c r="G28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
@@ -1279,7 +1283,7 @@
       <c r="G29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
@@ -1311,7 +1315,7 @@
       <c r="G30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
@@ -1343,7 +1347,7 @@
       <c r="G31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
@@ -1375,7 +1379,7 @@
       <c r="G32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
@@ -1407,7 +1411,7 @@
       <c r="G33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
@@ -1439,7 +1443,7 @@
       <c r="G34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="0" t="s">
@@ -1471,7 +1475,7 @@
       <c r="G35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="0" t="s">
@@ -1503,7 +1507,7 @@
       <c r="G36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
@@ -1535,7 +1539,7 @@
       <c r="G37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" s="5" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="52">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -185,8 +182,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -280,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -305,6 +303,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -324,8 +326,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,11 +408,11 @@
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>16</v>
+      <c r="I2" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -437,7 +439,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -454,11 +456,11 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
+      <c r="I3" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,7 +471,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -486,11 +488,11 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+      <c r="I4" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>
@@ -518,11 +520,11 @@
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+      <c r="I5" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>13</v>
@@ -550,11 +552,11 @@
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
+      <c r="I6" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -565,7 +567,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>13</v>
@@ -582,11 +584,11 @@
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
+      <c r="I7" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -597,7 +599,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>13</v>
@@ -614,11 +616,11 @@
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>16</v>
+      <c r="I8" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,7 +631,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>13</v>
@@ -646,11 +648,11 @@
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
+      <c r="I9" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,7 +663,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>13</v>
@@ -678,11 +680,11 @@
       <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
+      <c r="I10" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -693,7 +695,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>13</v>
@@ -710,11 +712,11 @@
       <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
+      <c r="I11" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -725,7 +727,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>13</v>
@@ -742,11 +744,11 @@
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
+      <c r="I12" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,7 +759,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>13</v>
@@ -774,11 +776,11 @@
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
+      <c r="I13" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>13</v>
@@ -806,11 +808,11 @@
       <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>16</v>
+      <c r="I14" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -821,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>13</v>
@@ -838,11 +840,11 @@
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
+      <c r="I15" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,7 +855,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -870,11 +872,11 @@
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
+      <c r="I16" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -902,11 +904,11 @@
       <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>16</v>
+      <c r="I17" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -917,7 +919,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>13</v>
@@ -934,11 +936,11 @@
       <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>16</v>
+      <c r="I18" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,7 +951,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>13</v>
@@ -966,11 +968,11 @@
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
+      <c r="I19" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -981,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>13</v>
@@ -998,11 +1000,11 @@
       <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
+      <c r="I20" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,7 +1015,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>13</v>
@@ -1030,11 +1032,11 @@
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
+      <c r="I21" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>13</v>
@@ -1062,11 +1064,11 @@
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
+      <c r="I22" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1077,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>13</v>
@@ -1094,11 +1096,11 @@
       <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
+      <c r="I23" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>13</v>
@@ -1126,11 +1128,11 @@
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
+      <c r="I24" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1141,7 +1143,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>13</v>
@@ -1158,11 +1160,11 @@
       <c r="H25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>16</v>
+      <c r="I25" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1173,7 +1175,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>13</v>
@@ -1190,11 +1192,11 @@
       <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>16</v>
+      <c r="I26" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>13</v>
@@ -1222,11 +1224,11 @@
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
+      <c r="I27" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>13</v>
@@ -1254,11 +1256,11 @@
       <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>16</v>
+      <c r="I28" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,7 +1271,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>13</v>
@@ -1286,11 +1288,11 @@
       <c r="H29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>16</v>
+      <c r="I29" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>13</v>
@@ -1318,11 +1320,11 @@
       <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>16</v>
+      <c r="I30" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1333,7 +1335,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>13</v>
@@ -1350,11 +1352,11 @@
       <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>16</v>
+      <c r="I31" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>13</v>
@@ -1382,11 +1384,11 @@
       <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>16</v>
+      <c r="I32" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,7 +1399,7 @@
         <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>13</v>
@@ -1414,11 +1416,11 @@
       <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>16</v>
+      <c r="I33" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>13</v>
@@ -1446,11 +1448,11 @@
       <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>16</v>
+      <c r="I34" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,7 +1463,7 @@
         <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>13</v>
@@ -1478,11 +1480,11 @@
       <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>16</v>
+      <c r="I35" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1493,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>13</v>
@@ -1510,11 +1512,11 @@
       <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>16</v>
+      <c r="I36" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,7 +1527,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>13</v>
@@ -1542,11 +1544,11 @@
       <c r="H37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>16</v>
+      <c r="I37" s="6" t="b">
+        <v>0</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">10.23.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490</t>
+    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
   </si>
   <si>
     <t xml:space="preserve">E7420</t>
@@ -326,13 +326,17 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1250,7 +1254,7 @@
       <c r="F28" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -1282,7 +1286,7 @@
       <c r="F29" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -1314,7 +1318,7 @@
       <c r="F30" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -1346,7 +1350,7 @@
       <c r="F31" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -1378,7 +1382,7 @@
       <c r="F32" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -1410,7 +1414,7 @@
       <c r="F33" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -1442,7 +1446,7 @@
       <c r="F34" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -1474,7 +1478,7 @@
       <c r="F35" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -1506,7 +1510,7 @@
       <c r="F36" s="0" t="n">
         <v>35</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -1538,7 +1542,7 @@
       <c r="F37" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="5" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">polyAIsolationProtocol</t>
   </si>
   <si>
-    <t xml:space="preserve">s1Protocol</t>
+    <t xml:space="preserve">s1cDNAProtocol</t>
   </si>
   <si>
     <t xml:space="preserve">roboticS1Prep</t>
@@ -64,10 +64,10 @@
     <t xml:space="preserve">10.23.19</t>
   </si>
   <si>
-    <t xml:space="preserve">NEBNextPoly(A)E7490L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7490L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E7420L</t>
   </si>
   <si>
     <t xml:space="preserve">random</t>
@@ -326,8 +326,8 @@
   </sheetPr>
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2:I37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -412,7 +412,8 @@
       <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6" t="b">
+      <c r="I2" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -460,7 +461,8 @@
       <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="6" t="b">
+      <c r="I3" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -492,7 +494,8 @@
       <c r="H4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="6" t="b">
+      <c r="I4" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -524,7 +527,8 @@
       <c r="H5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6" t="b">
+      <c r="I5" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -556,7 +560,8 @@
       <c r="H6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="6" t="b">
+      <c r="I6" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -588,7 +593,8 @@
       <c r="H7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="6" t="b">
+      <c r="I7" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -620,7 +626,8 @@
       <c r="H8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="6" t="b">
+      <c r="I8" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -652,7 +659,8 @@
       <c r="H9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6" t="b">
+      <c r="I9" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -684,7 +692,8 @@
       <c r="H10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="6" t="b">
+      <c r="I10" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -716,7 +725,8 @@
       <c r="H11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I11" s="6" t="b">
+      <c r="I11" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -748,7 +758,8 @@
       <c r="H12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="6" t="b">
+      <c r="I12" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -780,7 +791,8 @@
       <c r="H13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6" t="b">
+      <c r="I13" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -812,7 +824,8 @@
       <c r="H14" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="6" t="b">
+      <c r="I14" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -844,7 +857,8 @@
       <c r="H15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="6" t="b">
+      <c r="I15" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -876,7 +890,8 @@
       <c r="H16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="6" t="b">
+      <c r="I16" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -908,7 +923,8 @@
       <c r="H17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="6" t="b">
+      <c r="I17" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -940,7 +956,8 @@
       <c r="H18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="6" t="b">
+      <c r="I18" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -972,7 +989,8 @@
       <c r="H19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="6" t="b">
+      <c r="I19" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1004,7 +1022,8 @@
       <c r="H20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="6" t="b">
+      <c r="I20" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1036,7 +1055,8 @@
       <c r="H21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="6" t="b">
+      <c r="I21" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1068,7 +1088,8 @@
       <c r="H22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="6" t="b">
+      <c r="I22" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1100,7 +1121,8 @@
       <c r="H23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I23" s="6" t="b">
+      <c r="I23" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1132,7 +1154,8 @@
       <c r="H24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I24" s="6" t="b">
+      <c r="I24" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -1164,7 +1187,8 @@
       <c r="H25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="6" t="b">
+      <c r="I25" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -1196,7 +1220,8 @@
       <c r="H26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I26" s="6" t="b">
+      <c r="I26" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -1228,7 +1253,8 @@
       <c r="H27" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I27" s="6" t="b">
+      <c r="I27" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -1260,7 +1286,8 @@
       <c r="H28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I28" s="6" t="b">
+      <c r="I28" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J28" s="0" t="s">
@@ -1292,7 +1319,8 @@
       <c r="H29" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="6" t="b">
+      <c r="I29" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J29" s="0" t="s">
@@ -1324,7 +1352,8 @@
       <c r="H30" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="6" t="b">
+      <c r="I30" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J30" s="0" t="s">
@@ -1356,7 +1385,8 @@
       <c r="H31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I31" s="6" t="b">
+      <c r="I31" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J31" s="0" t="s">
@@ -1388,7 +1418,8 @@
       <c r="H32" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="6" t="b">
+      <c r="I32" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J32" s="0" t="s">
@@ -1420,7 +1451,8 @@
       <c r="H33" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="6" t="b">
+      <c r="I33" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J33" s="0" t="s">
@@ -1452,7 +1484,8 @@
       <c r="H34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="6" t="b">
+      <c r="I34" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J34" s="0" t="s">
@@ -1484,7 +1517,8 @@
       <c r="H35" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I35" s="6" t="b">
+      <c r="I35" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J35" s="0" t="s">
@@ -1516,7 +1550,8 @@
       <c r="H36" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="6" t="b">
+      <c r="I36" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J36" s="0" t="s">
@@ -1548,7 +1583,8 @@
       <c r="H37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="6" t="b">
+      <c r="I37" s="6" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="J37" s="0" t="s">

--- a/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
+++ b/s1cDNASample/s1CDNASample_hbrown_10.23.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s1cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{652738AB-9518-F649-9684-681C90A06A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFD6D91-9E5F-A84F-9042-D8C3BA302677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="17">
   <si>
     <t>rnaDate</t>
   </si>
@@ -80,14 +80,14 @@
   <si>
     <t>random</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -148,10 +148,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,7 +469,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C37"/>
+      <selection activeCell="I2" sqref="I2:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -554,9 +554,8 @@
       <c r="H2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I2" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -603,9 +602,8 @@
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I3" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>15</v>
@@ -636,9 +634,8 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I4" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
@@ -669,9 +666,8 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I5" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -702,9 +698,8 @@
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I6" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -717,7 +712,7 @@
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -735,9 +730,8 @@
       <c r="H7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I7" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -768,9 +762,8 @@
       <c r="H8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I8" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -801,9 +794,8 @@
       <c r="H9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -834,9 +826,8 @@
       <c r="H10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -867,9 +858,8 @@
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -882,7 +872,7 @@
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -900,9 +890,8 @@
       <c r="H12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I12" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -933,9 +922,8 @@
       <c r="H13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I13" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -966,9 +954,8 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I14" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -999,9 +986,8 @@
       <c r="H15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I15" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -1032,9 +1018,8 @@
       <c r="H16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I16" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -1047,7 +1032,7 @@
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>16</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1065,9 +1050,8 @@
       <c r="H17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I17" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -1098,9 +1082,8 @@
       <c r="H18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I18" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -1131,9 +1114,8 @@
       <c r="H19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I19" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -1164,9 +1146,8 @@
       <c r="H20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I20" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -1197,9 +1178,8 @@
       <c r="H21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I21" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -1212,7 +1192,7 @@
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1230,9 +1210,8 @@
       <c r="H22" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I22" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -1263,9 +1242,8 @@
       <c r="H23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I23" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -1296,9 +1274,8 @@
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I24" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1329,9 +1306,8 @@
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1362,9 +1338,8 @@
       <c r="H26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1377,7 +1352,7 @@
       <c r="B27" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>26</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1395,9 +1370,8 @@
       <c r="H27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I27" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1428,9 +1402,8 @@
       <c r="H28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I28" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>15</v>
@@ -1461,9 +1434,8 @@
       <c r="H29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I29" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>15</v>
@@ -1494,9 +1466,8 @@
       <c r="H30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I30" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J30" t="s">
         <v>15</v>
@@ -1527,9 +1498,8 @@
       <c r="H31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I31" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J31" t="s">
         <v>15</v>
@@ -1542,7 +1512,7 @@
       <c r="B32" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>31</v>
       </c>
       <c r="D32" t="s">
@@ -1560,9 +1530,8 @@
       <c r="H32" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I32" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J32" t="s">
         <v>15</v>
@@ -1593,9 +1562,8 @@
       <c r="H33" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I33" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J33" t="s">
         <v>15</v>
@@ -1626,9 +1594,8 @@
       <c r="H34" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I34" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>15</v>
@@ -1659,9 +1626,8 @@
       <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I35" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>15</v>
@@ -1692,9 +1658,8 @@
       <c r="H36" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I36" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>15</v>
@@ -1707,7 +1672,7 @@
       <c r="B37" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>36</v>
       </c>
       <c r="D37" t="s">
@@ -1725,9 +1690,8 @@
       <c r="H37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="I37" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="J37" t="s">
         <v>15</v>
